--- a/Other dataset/Unedited & Testing/UKDA-6411-spss/mcs_longitudinal_data_dictionary_2021-02-03 edited.xlsx
+++ b/Other dataset/Unedited & Testing/UKDA-6411-spss/mcs_longitudinal_data_dictionary_2021-02-03 edited.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Downloads\Year 4 work\Applied-Data-Science-Coursework\Applied-Data-Science-Coursework\Other dataset\6411spss_E07DB7278D6B8616598C575D49EA01D17216181490D9B8E2F72A77E190C53364_V1\UKDA-6411-spss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Downloads\Year 4 work\Applied-Data-Science-Coursework\Applied-Data-Science-Coursework\Other dataset\Unedited &amp; Testing\UKDA-6411-spss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CB49AB6-0D76-4227-83C3-5F9759B0ED22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE97D9D2-E492-476F-A2F9-596E94A4A0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="How_to_use_the_DataDict" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Survey_Collection_DataDict!$A$1:$M$979</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -8820,7 +8833,7 @@
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J7686" sqref="J2:J7686"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
